--- a/tmp.xlsx
+++ b/tmp.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,62 +563,62 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PIM000000425-COLOR CLAY Cydonia Natural TDS.pdf</t>
+          <t>PIM000003031-Actimalt Liquid Regular.pdf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Color Clay® CYDONIA</t>
+          <t>ACTIMALT LIQUID REGULAR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DKSH Marketing Services Spain, S.A.U.</t>
+          <t>Muntons</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The document states that the Color Clay® product range, including Color Clay® CYDONIA, is distributed worldwide by DKSH Marketing Services Spain, S.A.U.</t>
+          <t>The product specification document for ACTIMALT LIQUID REGULAR prominently features the name 'Muntons' at the top, indicating that Muntons is the manufacturer or supplier of this product.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['Personal Care']</t>
+          <t>['Beverage &amp; Dairy (BD)']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Selected Personal Care because the document mentions applications such as facial or body muds, masks, cleansers, creams, serums, hair masks, shampoos, and make up, all of which are personal care products. There is no mention of use in homecare or institutional cleaning products.</t>
+          <t>Selected Beverage &amp; Dairy (BD) because the product is a malt extract syrup commonly used as an ingredient in beverages and dairy products, as indicated by its description as a viscous liquid derived from barley and malted barley with a sweet malt flavor. There is no mention of use in confectionery, supplements, or processed food service in the document.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Mineral']</t>
+          <t>['Cereals/Gluten', 'Sugars/Carbohydrates']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Selected Mineral because the product is described as a natural colour clay with INCI name ILLITE and chemical composition consisting of mineral oxides (SiO2, Al2O3, Fe2O3, CaO, MgO). No mention of biomolecules, derived natural extracts, synthetic or vegetal ingredients.</t>
+          <t>Selected Cereals/Gluten because the product contains barley and malted barley and explicitly mentions gluten content (2,570 mg/kg). Selected Sugars/Carbohydrates because the nutritional information details various sugars (fructose, glucose, sucrose, maltose, maltotriose) and total carbohydrates present in the product.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['Cleanser', 'Dye/Pigment']</t>
+          <t>['Dietary Fiber', 'Flavouring &amp; Flavour Modulation', 'Protein', 'Sweetener']</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Selected Cleanser because the document mentions use in facial or body cleansers such as liquid soaps, peeling liquid soaps, and soap bars for deep cleansing. Selected Dye/Pigment because the product is described as a natural colour clay with a quince yellow (ochre) color, indicating its use as a pigment.</t>
+          <t>Selected Dietary Fiber because the nutritional information lists Total Dietary Fibre as 1.5 g per 100g. Selected Flavouring &amp; Flavour Modulation because the product description mentions a characteristic cereal/malt odour and flavour. Selected Protein because the nutritional information shows Protein content of 2.5 - 4.0 g per 100g. Selected Sweetener because the product is described as sweet and the sugar composition (maltose, glucose, sucrose, fructose) is detailed in the nutritional data.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['Hair Care', 'Skin Care', 'Soap &amp; Bath', 'Spa &amp; Wellness']</t>
+          <t>['Processed Food']</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Selected Hair Care because the document mentions use in hair masks or special shampoos. Selected Skin Care because it is used in facial or body muds, masks, creams, and serums. Selected Soap &amp; Bath because it is used in liquid soaps, peeling liquid soaps, and soap bars for deep cleansing. Selected Spa &amp; Wellness because facial and body muds and masks are typical spa and wellness applications.</t>
+          <t>Selected Processed Food because the product is a concentrated syrup derived from barley and malted barley, described as a viscous liquid with specific nutritional and microbiological specifications, indicating it is an ingredient used in food processing. No direct mention or indication of use in beverages, nutraceuticals, bakery, or other specific applications is provided in the document.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -628,22 +628,22 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>The document provides detailed technical information about Color Clay® CYDONIA, including chemical composition, physical properties, and applications, but does not mention any CAS Registry Number.</t>
+          <t>The document provides detailed product specifications, nutritional data, and ingredient information for ACTIMALT LIQUID REGULAR by Muntons, but does not mention any CAS Registry Number.</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Powder</t>
+          <t>Liquid</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Selected Powder because the document explicitly mentions the product's aspect as 'homogeneous powder' and the image description confirms it appears as a powder.</t>
+          <t>Selected Liquid because the product description states it is a viscous liquid and the appearance is described as a yellow-brown syrup, indicating a liquid physical form.</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Color Clay® CYDONIA is a natural quince yellow (ochre) homogeneous powder composed mainly of illite clay with high silicate content. It features fine particles mostly under 44 microns, an odourless profile, and a slightly alkaline pH around 8.75. This stable, natural clay is ideal for use in facial and body masks, cleansers, gels, creams, serums, and hair care products, providing easy application and effective skin benefits.</t>
+          <t>ACTIMALT LIQUID REGULAR is a viscous yellow-brown syrup made by enzyme-assisted hot water extraction of barley and malted barley, followed by filtration and vacuum concentration. It has a sweet taste with a characteristic malt flavor and contains a high soluble extract of barley. This product is ideal for use in food and beverage applications requiring natural malt extracts.</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>No recommended dosage instructions are mentioned in the provided document for Color Clay® CYDONIA from DKSH Marketing Services Spain, S.A.U.</t>
+          <t>No recommended dosage instructions are mentioned in the document for ACTIMALT LIQUID REGULAR from Muntons.</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>No certifications related to the product Color Clay® CYDONIA from DKSH Marketing Services Spain, S.A.U. are mentioned in the provided document.</t>
+          <t>No certifications related to ACTIMALT LIQUID REGULAR by Muntons are mentioned in the provided document.</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>No explicit claims related to any of the listed properties or effects are mentioned in the provided document for Color Clay® CYDONIA. The document only provides chemical composition, physical properties, microbiology data, and suggested applications without any functional claims such as anti-aging, anti-bacterial, moisturizing, or others.</t>
+          <t>No mention of bio-fermentation, meat or dairy alternative use, natural or ethical sourcing, resource or energy optimization, sustainable food waste reduction, or upcycling in the provided product specification and description.</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -683,69 +683,69 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Only applicable for FBI business line</t>
+          <t>No applicable health benefits because product functions not in the required list (Dietary Fiber, Food Culture, Fortification/Nutraceutical, Probiotic/Postbiotic, Protein)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PIM000000425-COLOR CLAY Natural Brochure.pdf</t>
+          <t>PIM000003047-8. FAMB279 BROWN SUGAR TYPE FL.pdf</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Color Clay®</t>
+          <t>FAMB279 N&amp;A BROWN SUGAR TYPE FL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Colorclay S.L.</t>
+          <t>WILD Flavors, Inc.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The document states that Colorclay S.L. is involved in environmental sustainability related to Color Clay® and the product range is distributed worldwide by DKSH Marketing Services Spain, S.A.U., but the manufacturer or supplier name associated directly with Color Clay® is Colorclay S.L.</t>
+          <t>The product specification document for FAMB279 N&amp;A BROWN SUGAR TYPE FL clearly lists the supplier name as WILD Flavors, Inc. with address 1261 Pacific Ave, Erlanger, KY 41018. This is mentioned on the first page under 'SUPPLIER NAME' and repeated multiple times throughout the document.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Personal Care']</t>
+          <t>['Beverage &amp; Dairy (BD)', 'Confectionary &amp; Bakery (CB)', 'Processed Food &amp; Food Service (PFFS)']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selected Personal Care because the document extensively describes the use of Color Clay® in personal care applications such as facial masks, body SPA treatments, soaps, shampoos, creams, serums, and makeup products. There is no mention of use in Homecare or Institutional Cleaning.</t>
+          <t>Selected Beverage &amp; Dairy (BD), Confectionary &amp; Bakery (CB), and Processed Food &amp; Food Service (PFFS) because the product is a brown sugar type flavoring intended for use in food products, which commonly includes beverages, bakery items, and processed foods. The document specifies it is a flavor ingredient compliant with food regulations and lists ingredients typical for flavorings used broadly in food and beverage applications. There is no mention or indication of use in Food Supplements &amp; Nutrition (FSN).</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['Mineral']</t>
+          <t>['Gum Arabic', 'Maltodextrin', 'Nature Identical Flavor', 'Dextrose from Genetically Modified Corn', 'Silicon Dioxide', 'Propylene Glycol', 'Glycerine', 'Caramel Color from Genetically Modified Corn', 'Sulfites']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Selected Mineral because the document repeatedly mentions the product is composed of natural clays with laminar silicate as the main crystal structure and highlights extraordinary mineral richness. No mention of biomolecules, synthetic substances, derived natural extracts, or vegetal sources is present.</t>
+          <t>Selected all listed ingredients because the document explicitly mentions them under the 'Ingredients' section for product FAMB279 N&amp;A BROWN SUGAR TYPE FL.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>['Cleanser', 'Dye/Pigment', 'Exfoliant', 'Skin Sensory Additive']</t>
+          <t>['Carrier &amp; Bulking Agent', 'Colour &amp; Colour Retention Agent', 'Flavouring &amp; Flavour Modulation', 'Humectant', 'Sweetener']</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Selected Cleanser because the document mentions a mild mechanical cleansing effect complementing surfactants. Selected Dye/Pigment because the product provides a natural coloring range for soaps and cosmetics. Selected Exfoliant due to the mild exfoliating effect from small particle size aiding dead cell renewal. Selected Skin Sensory Additive because the product improves skin feel with excellent spreadability and smooth texture.</t>
+          <t>Selected Carrier &amp; Bulking Agent because ingredients include Maltodextrin and Gum Arabic, which are commonly used as carriers and bulking agents. Selected Colour &amp; Colour Retention Agent because Caramel Color is listed as an ingredient. Selected Flavouring &amp; Flavour Modulation because the product is a flavor (brown sugar type) and contains Nature Identical Flavor. Selected Humectant because Glycerine and Propylene Glycol are known humectants present in the ingredient list. Selected Sweetener because Dextrose and the flavor type (brown sugar) indicate sweetening function.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>['Color Care', 'Hair Care', 'Skin Care', 'Soap &amp; Bath', 'Spa &amp; Wellness']</t>
+          <t>['Processed Food']</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Selected Color Care because the document mentions the product as a natural colouring agent for soaps and colour cosmetics. Selected Hair Care because it can be formulated into shampoos and mild surfactant systems with physical cleansing. Selected Skin Care due to its use in facial masks, exfoliation, oil absorption, and skin cell renewal. Selected Soap &amp; Bath because it is used in soap bars and liquid soap formulations. Selected Spa &amp; Wellness because it is used in natural facial and body wraps and body SPA treatments.</t>
+          <t>Selected Processed Food because the product is a flavoring ingredient (brown sugar type flavor) intended for use in food products as indicated by the product name and ingredient list. There is no specific mention of direct application in beverages, bakery, confectionery, or other categories, so only Processed Food is selected based on the general use as a flavor additive.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>The document provides detailed information about Color Clay® from Colorclay S.L., including product properties, uses, and sustainability, but does not mention any CAS Registry Number.</t>
+          <t>The provided product specification document for FAMB279 N&amp;A BROWN SUGAR TYPE FL from WILD Flavors, Inc. does not mention any CAS Registry Number.</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -765,12 +765,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Selected Powder because the document mentions the clay is finely ground below 44 microns and shows images of clay powders in vials and wooden spoons, indicating the product is in powder form.</t>
+          <t>Selected Powder because the Appearance is described as 'Light Brown/Tan Powder' in the Physical and Chemical Specifications section of the document.</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Color Clay® by Colorclay S.L. is a 100% natural Mediterranean clay product available in ten distinct earthy colors. Finely ground below 44 microns, it offers excellent absorption, mild exfoliation, and a smooth texture. Ideal for facial masks, body treatments, soaps, and cosmetics, it naturally cleanses, renews skin cells, and absorbs excess oil while enhancing formulations with stable, natural color.</t>
+          <t>FAMB279 N&amp;A BROWN SUGAR TYPE FL is a light brown to tan powder flavoring with a maple brown sugar aroma, designed for use in food products. It contains ingredients like gum arabic, maltodextrin, and nature identical flavors, offering consistent quality and compliance with FDA regulations. This flavor enhances sweetness and depth in various applications, with low moisture content and fine granulation for easy blending.</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -780,27 +780,27 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>No specific recommended dosage instructions, including dosage amount, units, frequency, or administration route, are mentioned in the provided document for Color Clay® by Colorclay S.L.</t>
+          <t>No recommended dosage instructions are mentioned in the provided document for product FAMB279 N&amp;A BROWN SUGAR TYPE FL from WILD Flavors, Inc.</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['GRAS, FEMAGRAS']</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>No certifications related to Color Clay® from Colorclay S.L. are explicitly mentioned in the document.</t>
+          <t>Selected GRAS, FEMAGRAS because the document states that all flavor ingredients are listed as generally recognized as safe in a reliable published industry association (FEMA) list and/or approved by the U.S. FDA regulations.</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>['Natural Cosmetic', 'Purifying', 'Sebum Control', 'Skin Renewal', 'Smoothing']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Selected Natural Cosmetic because the product is described as 100% natural with no additives or chemicals. Selected Purifying because the product acts as a mechanical cleanser removing impurities. Selected Sebum Control due to high oil adsorption capacity absorbing excess sebum. Selected Skin Renewal because the small particle size enables mild exfoliation aiding dead cell renewal. Selected Smoothing because the laminar platelet structure and fine particle size provide excellent spreadability and smooth texture.</t>
+          <t>No mention of bio-fermentation, meat &amp; dairy alternatives, natural or ethically sourced claims, resource or energy optimization, sustainable food waste reduction, or upcycled ingredients in the provided product specification document for FAMB279 N&amp;A BROWN SUGAR TYPE FL.</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -810,7 +810,388 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Only applicable for FBI business line</t>
+          <t>No applicable health benefits because product functions not in the required list (Dietary Fiber, Food Culture, Fortification/Nutraceutical, Probiotic/Postbiotic, Protein)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PIM000003729-4. Acerola JC_TH.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Acerola juice concentrate, clarified R=64-68</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SVZ Tomaszow Sp. z o.o.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The product specification for Acerola juice concentrate, clarified R=64-68 lists SVZ Tomaszow Sp. z o.o. as the approved supplier, including their contact details and company information.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['Beverage &amp; Dairy (BD)', 'Food Supplements &amp; Nutrition (FSN)']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selected Beverage &amp; Dairy (BD) because the product is a juice concentrate, which is commonly used in beverage production as indicated by the product description and physical standards related to juice. Selected Food Supplements &amp; Nutrition (FSN) because of the high Vitamin C content (6000 - 8000 mg/kg) and the nature of acerola as a source of nutrients, making it relevant for nutritional supplements. No mention or indication of use in Confectionary &amp; Bakery (CB) or Processed Food &amp; Food Service (PFFS) categories in the document.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['Fruit juice concentrate', 'Pesticides residues']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selected 'Fruit juice concentrate' because the product is described as 'Juice concentrate, made of sound and mature acerolas' and the ingredient listed is 'Acerolas'. Selected 'Pesticides residues' because the chemical standard mentions 'Residues of pesticides in compliance with Regulation (EC) No.396/2005 and subsequent amendments', indicating the possible presence of pesticide residues within regulated limits.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['Acidity Regulator', 'Antioxidant', 'Colour &amp; Colour Retention Agent', 'Flavouring &amp; Flavour Modulation', 'Fortification/Nutraceutical', 'Sweetener']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Selected Acidity Regulator because the product has a pH range of 2.7-3.5 and acidity as malic acid 6.0-10.0 g/100g indicating acid content. Selected Antioxidant and Fortification/Nutraceutical because of high Vitamin C content (6000-8000 mg/kg), which is a known antioxidant and nutraceutical. Selected Colour &amp; Colour Retention Agent because the product description includes colour (orange, yellow) and it is clarified concentrate, implying colour retention. Selected Flavouring &amp; Flavour Modulation because the product has defined flavour and taste (aromatic, typical acerola, sweet, acidic). Selected Sweetener because the taste is described as sweet and acidic, indicating natural sugars in the concentrate. Other functions are not selected as there is no mention or indication in the document.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['Beverage', 'Fruit &amp; Vegetables']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Selected Beverage because the product is a juice concentrate made from acerola, which is typically used in beverages. Selected Fruit &amp; Vegetables because the product is made from acerola fruit as stated in the ingredients and product description.</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>The provided product specification document for Acerola juice concentrate, clarified R=64-68 from SVZ Tomaszow Sp. z o.o. does not mention any CAS Registry Number.</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Liquid</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Selected Liquid because the product is described as a juice concentrate, which is typically in liquid form, and the document mentions parameters like Brix and specific gravity that are relevant to liquid concentrates.</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Acerola juice concentrate, clarified R=64-68 from SVZ Tomaszow Sp. z o.o. is a filtered and concentrated juice made from mature acerola fruits. It has a high Brix value of 64-68, a pH between 2.7 and 3.5, and contains 6000-8000 mg/kg of vitamin C. The concentrate offers a sweet, acidic taste with an aromatic acerola flavor and vibrant orange-yellow color, ideal for use in food and beverage applications requiring natural vitamin C enrichment.</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>No recommended dosage instructions are mentioned in the provided document for Acerola juice concentrate, clarified R=64-68 from SVZ Tomaszow Sp. z o.o.</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>No certifications from the specified list are mentioned in the document for Acerola juice concentrate, clarified R=64-68 from SVZ Tomaszow Sp. z o.o. The document only mentions 'IRMA Approved Supplier' and 'SGS Certified', which are not part of the requested certification list.</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>No mention of bio-fermentation, meat or dairy alternative use, natural or ethical sourcing claims, resource or energy optimization, sustainable food waste reduction, or upcycling in the provided product specification document.</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>No applicable health benefits because product functions not in the required list (Dietary Fiber, Food Culture, Fortification/Nutraceutical, Probiotic/Postbiotic, Protein)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PIM000003890-ACCELERZYME CPG.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Accelerzyme CPG BF</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DSM Food Specialties B.V.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The product specification sheet for Accelerzyme CPG BF includes contact information and addresses for DSM Food Specialties B.V., indicating they are the manufacturer or supplier. The document header and footer also prominently feature the DSM brand and website (www.dsm.com/foodandbeverages), confirming DSM as the responsible company for this product.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['Processed Food &amp; Food Service (PFFS)']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Selected Processed Food &amp; Food Service (PFFS) because the product is a protease enzyme preparation used in food processing applications, as indicated by its description and compliance with food enzyme preparation standards. There is no specific mention of use in beverage, dairy, confectionery, bakery, or food supplements sectors in the document.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['Enzymes', 'Microbial-derived ingredients', 'Heavy metals', 'Glycerol']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selected Enzymes because the product is described as a liquid carboxypeptidase (protease) preparation. Selected Microbial-derived ingredients because the enzyme is derived from Aspergillus niger, a microorganism. Selected Heavy metals because the product specification lists limits for heavy metals including lead, arsenic, mercury, and cadmium. Selected Glycerol because glycerol is explicitly listed as a major ingredient (≥50% w/w).</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['Food Enzyme', 'Humectant']</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Selected Food Enzyme because the product is described as a liquid carboxypeptidase (protease) enzyme preparation derived from Aspergillus niger. Selected Humectant because the product contains ≥ 50% glycerol, which is commonly used as a humectant.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>No specific application or food product use is mentioned in the document for Accelerzyme CPG BF. The document only describes the enzyme preparation, its composition, specifications, and storage, without linking it to any particular food or beverage application.</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>The provided product specification sheet for Accelerzyme CPG BF from DSM Food Specialties B.V. does not mention any CAS Registry Number.</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Liquid</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Selected Liquid because the product description states that Accelerzyme CPG BF is a liquid carboxypeptidase preparation and the appearance section describes it as a green liquid with clarity 'Clear to opalescent'.</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Accelerzyme CPG BF is a liquid carboxypeptidase enzyme preparation derived from Aspergillus niger, presented as a green, clear to opalescent solution containing over 50% glycerol. It offers high protease activity (≥ 900 CPGU/ml) and is suitable for vegan and vegetarian applications. The product is kosher and halal approved, with strict microbiological and heavy metal controls, making it reliable for food industry use.</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>No recommended dosage instructions are mentioned in the provided document for Accelerzyme CPG BF from DSM Food Specialties B.V.</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>['ISO', 'CODEX, JECFA', 'HALAL, JAKIM, MUI', 'Kosher', 'Vegan']</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Selected ISO because the document states analytical methods are derived from international standardized methods like ISO. Selected CODEX, JECFA because the product complies with general specifications published in the Food Chemicals Codex and by JECFA. Selected HALAL, JAKIM, MUI because the product is explicitly stated as Halal approved. Selected Kosher because the product is explicitly stated as Kosher approved. Selected Vegan because the product is explicitly stated as suitable for vegans.</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>['Bio-Fermentation']</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Selected Bio-Fermentation because the product is derived from a selected strain of Aspergillus niger, indicating a fermentation-based production process. No mention of meat &amp; dairy alternative, natural &amp; ethically sourced claims, resource &amp; energy optimization, sustainable food waste reduction, or upcycling in the document.</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>No applicable health benefits because product functions not in the required list (Dietary Fiber, Food Culture, Fortification/Nutraceutical, Probiotic/Postbiotic, Protein)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PIM000007436-Specification_1101103010101_Apple juice concentrate_Austria Juice Standard - Stock quality - Medium acidity.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Apple juice concentrate</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>AUSTRIA JUICE GmbH</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>The document is a product specification for Apple juice concentrate and is issued by AUSTRIA JUICE GmbH, whose contact details and company information are provided at the bottom of the page, indicating they are the manufacturer or supplier of the product.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['Beverage &amp; Dairy (BD)']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Selected Beverage &amp; Dairy (BD) because the product is apple juice concentrate, which is primarily used in beverage production as indicated by the product type and specifications related to juice concentration and quality. There is no mention in the document of use in confectionery, bakery, food supplements, or processed food service applications.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['Fruit juices and concentrates', 'Acids']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selected 'Fruit juices and concentrates' because the product is described as concentrated apple juice made from pressing ripe apples. Selected 'Acids' because the physico-chemical specification mentions total acidity as malic acid, indicating the presence of organic acids.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>No mention of any functional additives or roles such as acidity regulator, preservative, sweetener, or others in the document. The product is described as concentrated apple juice made by physical water removal, with specifications on physical, chemical, and microbiological parameters but no functional ingredient or additive functions are indicated.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['Beverage', 'Fruit &amp; Vegetables']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Selected Beverage because the product is concentrated apple juice, a typical ingredient for beverages. Selected Fruit &amp; Vegetables because the product is derived from apples (Malus domestica), a fruit, as stated in the botanical name and product description. No other applications are mentioned or implied in the document.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>The document provides detailed specifications and regulatory compliance information for Apple juice concentrate from AUSTRIA JUICE GmbH but does not mention any CAS Registry Number.</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Liquid</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Selected Liquid because the document mentions in the Sensorical Specification section that the appearance is a 'viscous liquid'.</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Apple juice concentrate from AUSTRIA JUICE GmbH is a clear, golden-yellow viscous liquid made by removing water from pressed ripe apples. It contains about 70°Bx soluble solids and has a typical apple flavor. This concentrate is free from allergens and GMOs, complies with EU regulations, and is suitable for various food and beverage applications. It should be stored at 4-6°C and has a shelf life of six months.</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>No recommended dosage instructions are mentioned in the document for Apple juice concentrate from AUSTRIA JUICE GmbH.</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>No certifications related to Apple juice concentrate from AUSTRIA JUICE GmbH are explicitly mentioned in the provided document.</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>No mention of bio-fermentation, meat or dairy alternative use, natural or ethical sourcing claims, resource or energy optimization, sustainable food waste reduction, or upcycling in the provided product specification.</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>No applicable health benefits because product functions not in the required list (Dietary Fiber, Food Culture, Fortification/Nutraceutical, Probiotic/Postbiotic, Protein)</t>
         </is>
       </c>
     </row>

--- a/tmp.xlsx
+++ b/tmp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dksh-my.sharepoint.com/personal/khunakorn_l_dksh_com/Documents/9999-99-99 GitRepo/dksh-raw-tds-parser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_3D114B3B56523A0E62355476585DCE3A87473E02" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9F72EBD-502B-4D48-8DE7-5E7F746B08BF}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_085DA777D54DD60E62355476587D367CAFAF9A36" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87E7F0E5-9855-4BA4-BA60-04B0A01ED6E4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17244" yWindow="1068" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>FILE_NAME</t>
   </si>
@@ -161,225 +161,6 @@
   </si>
   <si>
     <t>No applicable health benefits because product functions not in the required list (Dietary Fiber, Food Culture, Fortification/Nutraceutical, Probiotic/Postbiotic, Protein)</t>
-  </si>
-  <si>
-    <t>PIM000003047-8. FAMB279 BROWN SUGAR TYPE FL.pdf</t>
-  </si>
-  <si>
-    <t>FAMB279 N&amp;A BROWN SUGAR TYPE FL</t>
-  </si>
-  <si>
-    <t>WILD Flavors, Inc.</t>
-  </si>
-  <si>
-    <t>The product specification document for FAMB279 N&amp;A BROWN SUGAR TYPE FL clearly lists the supplier name as WILD Flavors, Inc. on page 1, including their address and contact information.</t>
-  </si>
-  <si>
-    <t>['Beverage &amp; Dairy (BD)', 'Confectionary &amp; Bakery (CB)', 'Processed Food &amp; Food Service (PFFS)']</t>
-  </si>
-  <si>
-    <t>Selected Beverage &amp; Dairy (BD), Confectionary &amp; Bakery (CB), and Processed Food &amp; Food Service (PFFS) because the product is a brown sugar type flavoring intended for use in food products, which commonly includes beverages, bakery items, and processed foods. The document specifies it is a flavor ingredient compliant with FDA regulations and used in food products, supporting its application in these clusters. There is no mention or indication of use in Food Supplements &amp; Nutrition (FSN).</t>
-  </si>
-  <si>
-    <t>['Gum Arabic', 'Maltodextrin', 'Nature Identical Flavor', 'Dextrose from Genetically Modified Corn', 'Silicon Dioxide', 'Propylene Glycol', 'Glycerine', 'Caramel Color from Genetically Modified Corn', 'Sulfites']</t>
-  </si>
-  <si>
-    <t>Selected all listed ingredients because they are explicitly mentioned under the 'Ingredients' section of the product specification for FAMB279 N&amp;A BROWN SUGAR TYPE FL.</t>
-  </si>
-  <si>
-    <t>['Carrier &amp; Bulking Agent', 'Colour &amp; Colour Retention Agent', 'Flavouring &amp; Flavour Modulation', 'Humectant', 'Sweetener']</t>
-  </si>
-  <si>
-    <t>Selected Carrier &amp; Bulking Agent because ingredients include Maltodextrin and Gum Arabic, which are commonly used as carriers and bulking agents. Selected Colour &amp; Colour Retention Agent because Caramel Color is listed as an ingredient. Selected Flavouring &amp; Flavour Modulation because the product contains Nature Identical Flavor and is described as a flavor product (Brown Sugar Type FL). Selected Humectant because Glycerine and Propylene Glycol are present, which are known humectants. Selected Sweetener because Dextrose is included, which is a sweetener.</t>
-  </si>
-  <si>
-    <t>Selected Processed Food because the product is described as a flavoring ingredient to be used in food products under the Federal Food, Drug and Cosmetic Act. Selected Ingredients Manufacturers because the product is a flavor ingredient composed of various components (gum arabic, maltodextrin, nature identical flavor, etc.) intended for use by food manufacturers.</t>
-  </si>
-  <si>
-    <t>The provided product specification document for FAMB279 N&amp;A BROWN SUGAR TYPE FL from WILD Flavors, Inc. does not mention any CAS Registry Number.</t>
-  </si>
-  <si>
-    <t>Powder</t>
-  </si>
-  <si>
-    <t>Selected Powder because the Appearance is described as 'Light Brown/Tan Powder' in the Physical and Chemical Specifications section of the document.</t>
-  </si>
-  <si>
-    <t>FAMB279 N&amp;A BROWN SUGAR TYPE FL is a light brown/tan powder flavoring with a maple brown sugar aroma, designed for use in food products. It contains ingredients like gum arabic, maltodextrin, and nature identical flavor, offering consistent sweetness and rich flavor. This product is low in moisture and finely granulated, making it suitable for various food applications requiring a natural brown sugar taste.</t>
-  </si>
-  <si>
-    <t>No recommended dosage instructions are mentioned in the provided document for product FAMB279 N&amp;A BROWN SUGAR TYPE FL from WILD Flavors, Inc.</t>
-  </si>
-  <si>
-    <t>['GRAS, FEMAGRAS']</t>
-  </si>
-  <si>
-    <t>Selected GRAS, FEMAGRAS because the document states that all flavor ingredients are listed as generally recognized as safe in a reliable published industry association (FEMA) list and/or approved by the U.S. FDA regulations, indicating GRAS status.</t>
-  </si>
-  <si>
-    <t>No mention of bio-fermentation, meat or dairy alternatives, natural or ethically sourced claims, resource or energy optimization, sustainable food waste reduction, or upcycled ingredients in the provided product specification document.</t>
-  </si>
-  <si>
-    <t>PIM000003729-4. Acerola JC_TH.pdf</t>
-  </si>
-  <si>
-    <t>Acerola juice concentrate, clarified R=64-68</t>
-  </si>
-  <si>
-    <t>SVZ Tomaszow Sp. z o.o.</t>
-  </si>
-  <si>
-    <t>The product specification document for Acerola juice concentrate, clarified R=64-68 lists SVZ Tomaszow Sp. z o.o. as the approved supplier, including their contact details and company information.</t>
-  </si>
-  <si>
-    <t>['Beverage &amp; Dairy (BD)', 'Food Supplements &amp; Nutrition (FSN)']</t>
-  </si>
-  <si>
-    <t>Selected Beverage &amp; Dairy (BD) because the product is a juice concentrate, which is typically used in beverage production as indicated by the product description and physical standards related to juice concentrate. Selected Food Supplements &amp; Nutrition (FSN) because the product has a high Vitamin C content (6000-8000 mg/kg), which is relevant for nutritional and supplement applications. Not selected Confectionary &amp; Bakery (CB) or Processed Food &amp; Food Service (PFFS) as there is no mention or indication of use in confectionary, bakery, or processed food service contexts in the document.</t>
-  </si>
-  <si>
-    <t>['Fruit juices and concentrates', 'Vitamins', 'Acids', 'Pesticides']</t>
-  </si>
-  <si>
-    <t>Selected 'Fruit juices and concentrates' because the product is described as 'juice concentrate, made of sound and mature acerolas'. Selected 'Vitamins' because the document specifies 'Vitamin C [mg/kg] 6000 - 8000'. Selected 'Acids' because the chemical standard includes 'Acidity as malic acid [g/100g] 6.0 - 10.0'. Selected 'Pesticides' because the document mentions 'Residues of pesticides in compliance with Regulation (EC) No.396/2005'.</t>
-  </si>
-  <si>
-    <t>['Acidity Regulator', 'Antioxidant', 'Colour &amp; Colour Retention Agent', 'Flavouring &amp; Flavour Modulation', 'Food Essential', 'Fortification/Nutraceutical']</t>
-  </si>
-  <si>
-    <t>Selected Acidity Regulator because the product has a pH range of 2.7-3.5 and acidity as malic acid 6.0-10.0 g/100g indicating acid content regulation. Selected Antioxidant and Fortification/Nutraceutical because of high Vitamin C content (6000-8000 mg/kg), which is a known antioxidant and nutraceutical component. Selected Colour &amp; Colour Retention Agent because the product description includes visual color (orange, yellow) indicating color properties. Selected Flavouring &amp; Flavour Modulation because the product has a described aromatic, typical acerola flavor and sweet, acidic taste. Selected Food Essential because Vitamin C is an essential nutrient present in the product. Other functions are not selected as there is no mention or indication of those functions in the document.</t>
-  </si>
-  <si>
-    <t>['Beverage', 'Fruit &amp; Vegetables']</t>
-  </si>
-  <si>
-    <t>Selected Beverage because the product is a juice concentrate, which is typically used in beverages. Selected Fruit &amp; Vegetables because the product is made from acerola fruit concentrate as stated in the ingredients and product description. No other applications are mentioned or implied in the document.</t>
-  </si>
-  <si>
-    <t>The provided document for Acerola juice concentrate, clarified R=64-68 from SVZ Tomaszow Sp. z o.o. does not mention any CAS Registry Number.</t>
-  </si>
-  <si>
-    <t>Selected Liquid because the product is described as a juice concentrate, which is typically in liquid form, and the document mentions it is concentrated and packed, with no indication of solid or powder form.</t>
-  </si>
-  <si>
-    <t>Acerola juice concentrate, clarified R=64-68 from SVZ Tomaszow Sp. z o.o. is a filtered and concentrated juice made from mature acerola fruits. It has a high Brix value between 64 and 68, a pH of 2.7 to 3.5, and contains 6000-8000 mg/kg of vitamin C. The concentrate offers a sweet, acidic taste with an aromatic acerola flavor and is visually orange-yellow. It is microbiologically safe and suitable for frozen storage with a shelf life of 24 months.</t>
-  </si>
-  <si>
-    <t>No recommended dosage instructions are mentioned in the provided document for Acerola juice concentrate, clarified R=64-68 from SVZ Tomaszow Sp. z o.o.</t>
-  </si>
-  <si>
-    <t>No certifications related to the product Acerola juice concentrate, clarified R=64-68 from SVZ Tomaszow Sp. z o.o. are mentioned in the provided document.</t>
-  </si>
-  <si>
-    <t>No mention of bio-fermentation, meat or dairy alternatives, natural or ethical sourcing, resource or energy optimization, sustainable food waste reduction, or upcycling in the product specification document.</t>
-  </si>
-  <si>
-    <t>PIM000003890-ACCELERZYME CPG.pdf</t>
-  </si>
-  <si>
-    <t>Accelerzyme CPG BF</t>
-  </si>
-  <si>
-    <t>DSM Food Specialties B.V.</t>
-  </si>
-  <si>
-    <t>The product specification sheet for Accelerzyme CPG BF includes contact information and addresses for DSM Food Specialties B.V., indicating they are the manufacturer or supplier. The document header and footer also prominently display the DSM brand and website (www.dsm.com/foodandbeverages), confirming DSM as the responsible company for this product.</t>
-  </si>
-  <si>
-    <t>['Processed Food &amp; Food Service (PFFS)']</t>
-  </si>
-  <si>
-    <t>Selected Processed Food &amp; Food Service (PFFS) because the product is a protease enzyme preparation used in food processing, as indicated by its compliance with food enzyme preparation standards and its description as a liquid carboxypeptidase derived from Aspergillus niger, which is typically used in processed food applications. There is no specific mention of use in beverage, dairy, confectionery, bakery, or food supplements sectors in the document.</t>
-  </si>
-  <si>
-    <t>['Protease enzyme', 'Glycerol']</t>
-  </si>
-  <si>
-    <t>Selected Protease enzyme because the product is described as a liquid carboxypeptidase (protease) preparation derived from Aspergillus niger. Selected Glycerol because the composition table lists glycerol at 54% and physical-chemical specifications confirm glycerol content ≥ 50% (w/w).</t>
-  </si>
-  <si>
-    <t>['Food Enzyme', 'Humectant']</t>
-  </si>
-  <si>
-    <t>Selected Food Enzyme because the product is described as a liquid carboxypeptidase (protease) enzyme preparation derived from Aspergillus niger. Selected Humectant because the product contains ≥ 50% glycerol, which is commonly used as a humectant.</t>
-  </si>
-  <si>
-    <t>No specific application or usage in food product categories is mentioned in the document. The product is described as a liquid carboxypeptidase enzyme preparation with specifications and storage details but without any direct reference to its use in any of the listed application categories.</t>
-  </si>
-  <si>
-    <t>The provided product specification sheet for Accelerzyme CPG BF from DSM Food Specialties B.V. does not mention any CAS Registry Number.</t>
-  </si>
-  <si>
-    <t>Selected Liquid because the product description states that Accelerzyme CPG BF is a liquid carboxypeptidase preparation and the appearance section describes it as clear to opalescent, indicating a liquid form.</t>
-  </si>
-  <si>
-    <t>Accelerzyme CPG BF is a liquid carboxypeptidase enzyme preparation derived from Aspergillus niger, presented as a green, clear to opalescent solution. It contains over 50% glycerol and offers high protease activity, making it suitable for vegan and vegetarian applications. The product is kosher and halal approved, with strict microbiological and heavy metal controls, ensuring safety and quality for food industry use.</t>
-  </si>
-  <si>
-    <t>No recommended dosage instructions are mentioned in the provided document for Accelerzyme CPG BF from DSM Food Specialties B.V.</t>
-  </si>
-  <si>
-    <t>['ISO', 'CODEX, JECFA', 'HALAL, JAKIM, MUI', 'Kosher', 'Vegan']</t>
-  </si>
-  <si>
-    <t>Selected ISO because the document states analytical methods are derived from international standardized methods like ISO. Selected CODEX, JECFA because the product complies with specifications published in Food Chemicals Codex and by JECFA. Selected HALAL, JAKIM, MUI because the product is explicitly stated as Halal approved. Selected Kosher because the product is explicitly stated as Kosher approved. Selected Vegan because the product is explicitly stated as suitable for vegans.</t>
-  </si>
-  <si>
-    <t>['Bio-Fermentation']</t>
-  </si>
-  <si>
-    <t>Selected Bio-Fermentation because the product is derived from a selected strain of Aspergillus niger, indicating a fermentation-based production process. No mention of meat &amp; dairy alternative, natural &amp; ethically sourced claims, resource &amp; energy optimization, sustainable food waste reduction, or upcycling in the document.</t>
-  </si>
-  <si>
-    <t>PIM000007436-Specification_1101103010101_Apple juice concentrate_Austria Juice Standard - Stock quality - Medium acidity.pdf</t>
-  </si>
-  <si>
-    <t>Apple juice concentrate</t>
-  </si>
-  <si>
-    <t>AUSTRIA JUICE GmbH</t>
-  </si>
-  <si>
-    <t>The document is a product specification for Apple juice concentrate issued by AUSTRIA JUICE GmbH, with their contact details and company information clearly stated at the bottom of the page.</t>
-  </si>
-  <si>
-    <t>Selected Beverage &amp; Dairy (BD) because the product is apple juice concentrate, which is primarily used in beverage production as indicated by the product type and specifications related to juice concentration and quality. There is no mention of use in confectionary, food supplements, or processed food service in the document.</t>
-  </si>
-  <si>
-    <t>['Fruit juice', 'Malic acid']</t>
-  </si>
-  <si>
-    <t>Selected 'Fruit juice' because the product is described as concentrated apple juice made from pressing ripe apples. Selected 'Malic acid' because the physico-chemical specification lists total acidity as malic acid, indicating its presence in the product.</t>
-  </si>
-  <si>
-    <t>['Acidity Regulator']</t>
-  </si>
-  <si>
-    <t>Selected Acidity Regulator because the document specifies total acidity as malic acid and pH values, indicating control of acidity in the product. No mention of other functions such as preservatives, antioxidants, sweeteners, or emulsifiers is found in the document.</t>
-  </si>
-  <si>
-    <t>['Processed Food', 'Beverage', 'Ingredients Manufacturers']</t>
-  </si>
-  <si>
-    <t>Selected Processed Food and Beverage because the product is apple juice concentrate, which is typically used in beverage production and processed food applications. Selected Ingredients Manufacturers because the product is a concentrate ingredient used by manufacturers in food and beverage production. No mention of direct use in baby food, plant-based alternatives, snacks, or nutraceuticals in the document.</t>
-  </si>
-  <si>
-    <t>The document provides detailed specifications for Apple juice concentrate from AUSTRIA JUICE GmbH but does not mention any CAS Registry Number.</t>
-  </si>
-  <si>
-    <t>Selected Liquid because the document mentions in the Sensorical Specification section that the appearance of the apple juice concentrate is a 'viscous liquid'.</t>
-  </si>
-  <si>
-    <t>Apple juice concentrate from AUSTRIA JUICE GmbH is a clear, golden-yellow viscous liquid made by removing water from pressed ripe apples. It contains no allergens or GMOs and meets strict EU regulations for safety and quality. With a typical apple flavor, it is ideal for use in beverages and food products, offering consistent taste and high soluble solids content.</t>
-  </si>
-  <si>
-    <t>No recommended dosage instructions are mentioned in the document for Apple juice concentrate from AUSTRIA JUICE GmbH.</t>
-  </si>
-  <si>
-    <t>No certifications related to Apple juice concentrate from AUSTRIA JUICE GmbH are explicitly mentioned in the provided document.</t>
-  </si>
-  <si>
-    <t>No mention of bio-fermentation processes, meat or dairy alternatives, natural or ethical sourcing claims, resource or energy optimization, sustainable food waste reduction, or upcycling in the provided product specification document.</t>
   </si>
 </sst>
 </file>
@@ -435,13 +216,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,21 +523,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="32.21875" customWidth="1"/>
-    <col min="10" max="10" width="29.6640625" customWidth="1"/>
-    <col min="11" max="11" width="26.5546875" customWidth="1"/>
-    <col min="12" max="12" width="32" customWidth="1"/>
+    <col min="9" max="9" width="73.77734375" customWidth="1"/>
+    <col min="10" max="10" width="57.44140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="40.6640625" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -910,314 +688,6 @@
         <v>43</v>
       </c>
       <c r="Y2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" t="s">
-        <v>63</v>
-      </c>
-      <c r="U3" t="s">
-        <v>64</v>
-      </c>
-      <c r="V3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>78</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T4" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" t="s">
-        <v>82</v>
-      </c>
-      <c r="V4" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" t="s">
-        <v>83</v>
-      </c>
-      <c r="X4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" t="s">
-        <v>94</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>95</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>97</v>
-      </c>
-      <c r="R5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" t="s">
-        <v>98</v>
-      </c>
-      <c r="T5" t="s">
-        <v>99</v>
-      </c>
-      <c r="U5" t="s">
-        <v>100</v>
-      </c>
-      <c r="V5" t="s">
-        <v>101</v>
-      </c>
-      <c r="W5" t="s">
-        <v>102</v>
-      </c>
-      <c r="X5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J6" t="s">
-        <v>111</v>
-      </c>
-      <c r="K6" t="s">
-        <v>112</v>
-      </c>
-      <c r="L6" t="s">
-        <v>113</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>114</v>
-      </c>
-      <c r="O6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>116</v>
-      </c>
-      <c r="R6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" t="s">
-        <v>117</v>
-      </c>
-      <c r="T6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" t="s">
-        <v>118</v>
-      </c>
-      <c r="V6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W6" t="s">
-        <v>119</v>
-      </c>
-      <c r="X6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y6" t="s">
         <v>46</v>
       </c>
     </row>
